--- a/data/georgia_census/kakheti/sagarejo/population_total.xlsx
+++ b/data/georgia_census/kakheti/sagarejo/population_total.xlsx
@@ -1366,13 +1366,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0C01CDA-687D-45A3-8FE3-B17ABAA73685}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{195D9DDA-FB2D-48F3-BDF2-C2BD19FA62F0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6388051-797B-4049-8CD0-2B1D5B814BC2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{643E178D-41BB-45C6-996A-853AC2044E0F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB5EB259-B76E-4770-A3B3-310134F2EC32}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAD4865-DC91-4DAF-8B2F-072FA4E29AD8}"/>
 </file>